--- a/src/files/TabelaHorários.xlsx
+++ b/src/files/TabelaHorários.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="97">
   <si>
     <t>Engenharia de Computação</t>
   </si>
@@ -119,13 +119,190 @@
     <t>Engenharia Mecânica</t>
   </si>
   <si>
-    <t>dsc111|Prof026|12</t>
-  </si>
-  <si>
-    <t>dsc112|Prof043|8</t>
-  </si>
-  <si>
-    <t>dsc311|Prof096|27</t>
+    <t>dsc113|Prof010|43</t>
+  </si>
+  <si>
+    <t>dsc112|Prof08|19</t>
+  </si>
+  <si>
+    <t>dsc115|Prof010|43</t>
+  </si>
+  <si>
+    <t>dsc115|Prof010|19</t>
+  </si>
+  <si>
+    <t>dsc114|Prof018|19</t>
+  </si>
+  <si>
+    <t>dsc113|Prof010|19</t>
+  </si>
+  <si>
+    <t>dsc123|Prof015|38</t>
+  </si>
+  <si>
+    <t>dsc124|Prof015|38</t>
+  </si>
+  <si>
+    <t>dsc121|Prof02|64</t>
+  </si>
+  <si>
+    <t>dsc133|Prof020|39</t>
+  </si>
+  <si>
+    <t>dsc131|Prof013|39</t>
+  </si>
+  <si>
+    <t>dsc132|Prof019|39</t>
+  </si>
+  <si>
+    <t>dsc134|Prof020|69</t>
+  </si>
+  <si>
+    <t>dsc135|Prof027|39</t>
+  </si>
+  <si>
+    <t>dsc132|Prof019|69</t>
+  </si>
+  <si>
+    <t>dsc135|Prof027|69</t>
+  </si>
+  <si>
+    <t>dsc134|Prof020|39</t>
+  </si>
+  <si>
+    <t>dsc133|Prof020|69</t>
+  </si>
+  <si>
+    <t>dsc131|Prof013|69</t>
+  </si>
+  <si>
+    <t>dsc141|Prof029|25</t>
+  </si>
+  <si>
+    <t>dsc144|Prof028|25</t>
+  </si>
+  <si>
+    <t>dsc142|Prof029|25</t>
+  </si>
+  <si>
+    <t>dsc143|Prof05|25</t>
+  </si>
+  <si>
+    <t>dsc146|Prof030|25</t>
+  </si>
+  <si>
+    <t>dsc145|Prof023|25</t>
+  </si>
+  <si>
+    <t>dsc155|Prof022|17</t>
+  </si>
+  <si>
+    <t>dsc151|Prof022|17</t>
+  </si>
+  <si>
+    <t>dsc152|Prof022|17</t>
+  </si>
+  <si>
+    <t>dsc154|Prof022|17</t>
+  </si>
+  <si>
+    <t>dsc153|Prof011|17</t>
+  </si>
+  <si>
+    <t>dsc151|Prof022|41</t>
+  </si>
+  <si>
+    <t>dsc153|Prof011|67</t>
+  </si>
+  <si>
+    <t>dsc152|Prof022|67</t>
+  </si>
+  <si>
+    <t>dsc163|Prof023|23</t>
+  </si>
+  <si>
+    <t>dsc164|Prof023|23</t>
+  </si>
+  <si>
+    <t>dsc161|Prof014|23</t>
+  </si>
+  <si>
+    <t>dsc165|Prof014|23</t>
+  </si>
+  <si>
+    <t>dsc162|Prof012|23</t>
+  </si>
+  <si>
+    <t>dsc173|Prof032|13</t>
+  </si>
+  <si>
+    <t>dsc175|Prof035|13</t>
+  </si>
+  <si>
+    <t>dsc173|Prof032|55</t>
+  </si>
+  <si>
+    <t>dsc174|Prof032|13</t>
+  </si>
+  <si>
+    <t>dsc172|Prof036|55</t>
+  </si>
+  <si>
+    <t>dsc171|Prof034|55</t>
+  </si>
+  <si>
+    <t>dsc181|Prof037|2</t>
+  </si>
+  <si>
+    <t>dsc183|Prof035|2</t>
+  </si>
+  <si>
+    <t>dsc184|Prof038|2</t>
+  </si>
+  <si>
+    <t>dsc182|Prof037|2</t>
+  </si>
+  <si>
+    <t>dsc185|Prof039|2</t>
+  </si>
+  <si>
+    <t>dsc185|Prof039|77</t>
+  </si>
+  <si>
+    <t>dsc194|Prof042|5</t>
+  </si>
+  <si>
+    <t>dsc193|Prof039|5</t>
+  </si>
+  <si>
+    <t>dsc192|Prof039|79</t>
+  </si>
+  <si>
+    <t>dsc191|Prof041|79</t>
+  </si>
+  <si>
+    <t>dsc1101|Prof047|21</t>
+  </si>
+  <si>
+    <t>dsc1102|Prof048|21</t>
+  </si>
+  <si>
+    <t>dsc1104|Prof046|21</t>
+  </si>
+  <si>
+    <t>dsc1105|Prof050|21</t>
+  </si>
+  <si>
+    <t>dsc1103|Prof050|70</t>
+  </si>
+  <si>
+    <t>dsc1106|Prof043|70</t>
+  </si>
+  <si>
+    <t>dsc1104|Prof046|70</t>
+  </si>
+  <si>
+    <t>dsc1103|Prof050|21</t>
   </si>
 </sst>
 </file>
@@ -264,9 +441,12 @@
     <col min="1" max="1" width="11.73046875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.73046875" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="11.73046875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.55859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.4453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.55859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.67578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.67578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.55859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="19.67578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,7 +529,7 @@
       <c r="A3" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="B3" t="s" s="4">
         <v>35</v>
       </c>
       <c r="J3" t="s" s="1">
@@ -363,6 +543,12 @@
       <c r="A4" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="D4" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s" s="4">
+        <v>39</v>
+      </c>
       <c r="J4" t="s" s="1">
         <v>8</v>
       </c>
@@ -374,6 +560,12 @@
       <c r="A5" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="D5" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s" s="4">
+        <v>40</v>
+      </c>
       <c r="J5" t="s" s="1">
         <v>9</v>
       </c>
@@ -385,6 +577,12 @@
       <c r="A6" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="B6" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s" s="4">
+        <v>36</v>
+      </c>
       <c r="J6" t="s" s="1">
         <v>10</v>
       </c>
@@ -396,6 +594,12 @@
       <c r="A7" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="D7" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s" s="4">
+        <v>39</v>
+      </c>
       <c r="J7" t="s" s="1">
         <v>11</v>
       </c>
@@ -413,9 +617,6 @@
       <c r="S8" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="Y8" t="s" s="4">
-        <v>37</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
@@ -476,8 +677,11 @@
       <c r="A14" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="F14" t="s" s="4">
+      <c r="D14" t="s" s="4">
         <v>36</v>
+      </c>
+      <c r="E14" t="s" s="4">
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="1">
         <v>18</v>
@@ -490,6 +694,9 @@
       <c r="A15" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="B15" t="s" s="4">
+        <v>38</v>
+      </c>
       <c r="J15" t="s" s="1">
         <v>19</v>
       </c>
@@ -500,6 +707,12 @@
     <row r="16">
       <c r="A16" t="s" s="1">
         <v>20</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s" s="4">
+        <v>37</v>
       </c>
       <c r="J16" t="s" s="1">
         <v>20</v>
@@ -589,6 +802,9 @@
       <c r="A20" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="F20" t="s" s="4">
+        <v>41</v>
+      </c>
       <c r="J20" t="s" s="1">
         <v>8</v>
       </c>
@@ -611,6 +827,12 @@
       <c r="A22" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="D22" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s" s="4">
+        <v>41</v>
+      </c>
       <c r="J22" t="s" s="1">
         <v>10</v>
       </c>
@@ -622,6 +844,18 @@
       <c r="A23" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="D23" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s" s="4">
+        <v>43</v>
+      </c>
       <c r="J23" t="s" s="1">
         <v>11</v>
       </c>
@@ -688,6 +922,9 @@
       <c r="A29" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="F29" t="s" s="4">
+        <v>41</v>
+      </c>
       <c r="J29" t="s" s="1">
         <v>17</v>
       </c>
@@ -720,6 +957,9 @@
     <row r="32">
       <c r="A32" t="s" s="1">
         <v>20</v>
+      </c>
+      <c r="D32" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="1">
         <v>20</v>
@@ -798,6 +1038,9 @@
       <c r="A35" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="D35" t="s" s="4">
+        <v>46</v>
+      </c>
       <c r="J35" t="s" s="1">
         <v>7</v>
       </c>
@@ -809,6 +1052,12 @@
       <c r="A36" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="E36" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s" s="4">
+        <v>44</v>
+      </c>
       <c r="J36" t="s" s="1">
         <v>8</v>
       </c>
@@ -820,6 +1069,15 @@
       <c r="A37" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="B37" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s" s="4">
+        <v>44</v>
+      </c>
       <c r="J37" t="s" s="1">
         <v>9</v>
       </c>
@@ -831,6 +1089,12 @@
       <c r="A38" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="C38" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s" s="4">
+        <v>48</v>
+      </c>
       <c r="J38" t="s" s="1">
         <v>10</v>
       </c>
@@ -842,6 +1106,12 @@
       <c r="A39" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="D39" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="F39" t="s" s="4">
+        <v>45</v>
+      </c>
       <c r="J39" t="s" s="1">
         <v>11</v>
       </c>
@@ -908,6 +1178,9 @@
       <c r="A45" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="F45" t="s" s="4">
+        <v>49</v>
+      </c>
       <c r="J45" t="s" s="1">
         <v>17</v>
       </c>
@@ -919,6 +1192,9 @@
       <c r="A46" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="C46" t="s" s="4">
+        <v>46</v>
+      </c>
       <c r="J46" t="s" s="1">
         <v>18</v>
       </c>
@@ -930,6 +1206,12 @@
       <c r="A47" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="B47" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="F47" t="s" s="4">
+        <v>51</v>
+      </c>
       <c r="J47" t="s" s="1">
         <v>19</v>
       </c>
@@ -940,6 +1222,9 @@
     <row r="48">
       <c r="A48" t="s" s="1">
         <v>20</v>
+      </c>
+      <c r="F48" t="s" s="4">
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="1">
         <v>20</v>
@@ -1018,6 +1303,18 @@
       <c r="A51" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="C51" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="F51" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="G51" t="s" s="4">
+        <v>57</v>
+      </c>
       <c r="J51" t="s" s="1">
         <v>7</v>
       </c>
@@ -1029,6 +1326,18 @@
       <c r="A52" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="B52" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="F52" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="G52" t="s" s="4">
+        <v>56</v>
+      </c>
       <c r="J52" t="s" s="1">
         <v>8</v>
       </c>
@@ -1040,6 +1349,9 @@
       <c r="A53" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="D53" t="s" s="4">
+        <v>55</v>
+      </c>
       <c r="J53" t="s" s="1">
         <v>9</v>
       </c>
@@ -1051,6 +1363,21 @@
       <c r="A54" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="B54" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="E54" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="F54" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="G54" t="s" s="4">
+        <v>59</v>
+      </c>
       <c r="J54" t="s" s="1">
         <v>10</v>
       </c>
@@ -1062,6 +1389,12 @@
       <c r="A55" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="D55" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="F55" t="s" s="4">
+        <v>58</v>
+      </c>
       <c r="J55" t="s" s="1">
         <v>11</v>
       </c>
@@ -1128,6 +1461,12 @@
       <c r="A61" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="C61" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="D61" t="s" s="4">
+        <v>58</v>
+      </c>
       <c r="J61" t="s" s="1">
         <v>17</v>
       </c>
@@ -1139,6 +1478,15 @@
       <c r="A62" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="B62" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="E62" t="s" s="4">
+        <v>59</v>
+      </c>
       <c r="J62" t="s" s="1">
         <v>18</v>
       </c>
@@ -1150,6 +1498,9 @@
       <c r="A63" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="E63" t="s" s="4">
+        <v>55</v>
+      </c>
       <c r="J63" t="s" s="1">
         <v>19</v>
       </c>
@@ -1160,6 +1511,12 @@
     <row r="64">
       <c r="A64" t="s" s="1">
         <v>20</v>
+      </c>
+      <c r="B64" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="F64" t="s" s="4">
+        <v>58</v>
       </c>
       <c r="J64" t="s" s="1">
         <v>20</v>
@@ -1238,6 +1595,15 @@
       <c r="A67" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="D67" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="F67" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="G67" t="s" s="4">
+        <v>67</v>
+      </c>
       <c r="J67" t="s" s="1">
         <v>7</v>
       </c>
@@ -1249,6 +1615,15 @@
       <c r="A68" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="B68" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="G68" t="s" s="4">
+        <v>63</v>
+      </c>
       <c r="J68" t="s" s="1">
         <v>8</v>
       </c>
@@ -1260,6 +1635,12 @@
       <c r="A69" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="B69" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="D69" t="s" s="4">
+        <v>61</v>
+      </c>
       <c r="J69" t="s" s="1">
         <v>9</v>
       </c>
@@ -1271,6 +1652,9 @@
       <c r="A70" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="F70" t="s" s="4">
+        <v>63</v>
+      </c>
       <c r="J70" t="s" s="1">
         <v>10</v>
       </c>
@@ -1282,6 +1666,9 @@
       <c r="A71" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="D71" t="s" s="4">
+        <v>65</v>
+      </c>
       <c r="J71" t="s" s="1">
         <v>11</v>
       </c>
@@ -1348,6 +1735,12 @@
       <c r="A77" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="B77" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="C77" t="s" s="4">
+        <v>60</v>
+      </c>
       <c r="J77" t="s" s="1">
         <v>17</v>
       </c>
@@ -1359,6 +1752,9 @@
       <c r="A78" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="E78" t="s" s="4">
+        <v>66</v>
+      </c>
       <c r="J78" t="s" s="1">
         <v>18</v>
       </c>
@@ -1370,6 +1766,15 @@
       <c r="A79" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="C79" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="E79" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="F79" t="s" s="4">
+        <v>63</v>
+      </c>
       <c r="J79" t="s" s="1">
         <v>19</v>
       </c>
@@ -1380,6 +1785,9 @@
     <row r="80">
       <c r="A80" t="s" s="1">
         <v>20</v>
+      </c>
+      <c r="F80" t="s" s="4">
+        <v>64</v>
       </c>
       <c r="J80" t="s" s="1">
         <v>20</v>
@@ -1458,6 +1866,15 @@
       <c r="A83" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="C83" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="D83" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="G83" t="s" s="4">
+        <v>72</v>
+      </c>
       <c r="J83" t="s" s="1">
         <v>7</v>
       </c>
@@ -1469,6 +1886,12 @@
       <c r="A84" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="C84" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="G84" t="s" s="4">
+        <v>72</v>
+      </c>
       <c r="J84" t="s" s="1">
         <v>8</v>
       </c>
@@ -1480,6 +1903,15 @@
       <c r="A85" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="D85" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="E85" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="G85" t="s" s="4">
+        <v>72</v>
+      </c>
       <c r="J85" t="s" s="1">
         <v>9</v>
       </c>
@@ -1491,6 +1923,9 @@
       <c r="A86" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="G86" t="s" s="4">
+        <v>71</v>
+      </c>
       <c r="J86" t="s" s="1">
         <v>10</v>
       </c>
@@ -1502,6 +1937,15 @@
       <c r="A87" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="B87" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="F87" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="G87" t="s" s="4">
+        <v>72</v>
+      </c>
       <c r="J87" t="s" s="1">
         <v>11</v>
       </c>
@@ -1568,6 +2012,9 @@
       <c r="A93" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="B93" t="s" s="4">
+        <v>71</v>
+      </c>
       <c r="J93" t="s" s="1">
         <v>17</v>
       </c>
@@ -1579,6 +2026,12 @@
       <c r="A94" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="E94" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="F94" t="s" s="4">
+        <v>69</v>
+      </c>
       <c r="J94" t="s" s="1">
         <v>18</v>
       </c>
@@ -1590,6 +2043,12 @@
       <c r="A95" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="B95" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="C95" t="s" s="4">
+        <v>70</v>
+      </c>
       <c r="J95" t="s" s="1">
         <v>19</v>
       </c>
@@ -1600,6 +2059,12 @@
     <row r="96">
       <c r="A96" t="s" s="1">
         <v>20</v>
+      </c>
+      <c r="C96" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="D96" t="s" s="4">
+        <v>68</v>
       </c>
       <c r="J96" t="s" s="1">
         <v>20</v>
@@ -1678,6 +2143,9 @@
       <c r="A99" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="F99" t="s" s="4">
+        <v>73</v>
+      </c>
       <c r="J99" t="s" s="1">
         <v>7</v>
       </c>
@@ -1689,6 +2157,18 @@
       <c r="A100" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="B100" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="C100" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="D100" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="E100" t="s" s="4">
+        <v>75</v>
+      </c>
       <c r="J100" t="s" s="1">
         <v>8</v>
       </c>
@@ -1700,6 +2180,15 @@
       <c r="A101" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="B101" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="C101" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="G101" t="s" s="4">
+        <v>78</v>
+      </c>
       <c r="J101" t="s" s="1">
         <v>9</v>
       </c>
@@ -1711,6 +2200,9 @@
       <c r="A102" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="C102" t="s" s="4">
+        <v>76</v>
+      </c>
       <c r="J102" t="s" s="1">
         <v>10</v>
       </c>
@@ -1722,6 +2214,12 @@
       <c r="A103" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="C103" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="G103" t="s" s="4">
+        <v>73</v>
+      </c>
       <c r="J103" t="s" s="1">
         <v>11</v>
       </c>
@@ -1787,6 +2285,12 @@
     <row r="109">
       <c r="A109" t="s" s="1">
         <v>17</v>
+      </c>
+      <c r="E109" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="F109" t="s" s="4">
+        <v>74</v>
       </c>
       <c r="J109" t="s" s="1">
         <v>17</v>
@@ -1898,6 +2402,12 @@
       <c r="A115" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="C115" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="G115" t="s" s="4">
+        <v>80</v>
+      </c>
       <c r="J115" t="s" s="1">
         <v>7</v>
       </c>
@@ -1909,6 +2419,15 @@
       <c r="A116" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="B116" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="F116" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="G116" t="s" s="4">
+        <v>84</v>
+      </c>
       <c r="J116" t="s" s="1">
         <v>8</v>
       </c>
@@ -1920,6 +2439,15 @@
       <c r="A117" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="B117" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="F117" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="G117" t="s" s="4">
+        <v>82</v>
+      </c>
       <c r="J117" t="s" s="1">
         <v>9</v>
       </c>
@@ -1931,6 +2459,12 @@
       <c r="A118" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="B118" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="E118" t="s" s="4">
+        <v>83</v>
+      </c>
       <c r="J118" t="s" s="1">
         <v>10</v>
       </c>
@@ -1942,6 +2476,15 @@
       <c r="A119" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="C119" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="E119" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="G119" t="s" s="4">
+        <v>82</v>
+      </c>
       <c r="J119" t="s" s="1">
         <v>11</v>
       </c>
@@ -2008,6 +2551,12 @@
       <c r="A125" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="C125" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="D125" t="s" s="4">
+        <v>79</v>
+      </c>
       <c r="J125" t="s" s="1">
         <v>17</v>
       </c>
@@ -2030,6 +2579,9 @@
       <c r="A127" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="C127" t="s" s="4">
+        <v>80</v>
+      </c>
       <c r="J127" t="s" s="1">
         <v>19</v>
       </c>
@@ -2040,6 +2592,15 @@
     <row r="128">
       <c r="A128" t="s" s="1">
         <v>20</v>
+      </c>
+      <c r="B128" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="C128" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="F128" t="s" s="4">
+        <v>83</v>
       </c>
       <c r="J128" t="s" s="1">
         <v>20</v>
@@ -2129,6 +2690,9 @@
       <c r="A132" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="B132" t="s" s="4">
+        <v>85</v>
+      </c>
       <c r="J132" t="s" s="1">
         <v>8</v>
       </c>
@@ -2151,6 +2715,12 @@
       <c r="A134" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="E134" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="G134" t="s" s="4">
+        <v>85</v>
+      </c>
       <c r="J134" t="s" s="1">
         <v>10</v>
       </c>
@@ -2162,6 +2732,9 @@
       <c r="A135" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="B135" t="s" s="4">
+        <v>85</v>
+      </c>
       <c r="J135" t="s" s="1">
         <v>11</v>
       </c>
@@ -2228,6 +2801,12 @@
       <c r="A141" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="B141" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="F141" t="s" s="4">
+        <v>86</v>
+      </c>
       <c r="J141" t="s" s="1">
         <v>17</v>
       </c>
@@ -2250,6 +2829,12 @@
       <c r="A143" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="C143" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="D143" t="s" s="4">
+        <v>85</v>
+      </c>
       <c r="J143" t="s" s="1">
         <v>19</v>
       </c>
@@ -2260,6 +2845,12 @@
     <row r="144">
       <c r="A144" t="s" s="1">
         <v>20</v>
+      </c>
+      <c r="B144" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="F144" t="s" s="4">
+        <v>88</v>
       </c>
       <c r="J144" t="s" s="1">
         <v>20</v>
@@ -2338,6 +2929,9 @@
       <c r="A147" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="G147" t="s" s="4">
+        <v>89</v>
+      </c>
       <c r="J147" t="s" s="1">
         <v>7</v>
       </c>
@@ -2349,6 +2943,15 @@
       <c r="A148" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="B148" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="F148" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="G148" t="s" s="4">
+        <v>89</v>
+      </c>
       <c r="J148" t="s" s="1">
         <v>8</v>
       </c>
@@ -2360,6 +2963,21 @@
       <c r="A149" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="B149" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="C149" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="D149" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="F149" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="G149" t="s" s="4">
+        <v>95</v>
+      </c>
       <c r="J149" t="s" s="1">
         <v>9</v>
       </c>
@@ -2371,6 +2989,9 @@
       <c r="A150" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="F150" t="s" s="4">
+        <v>90</v>
+      </c>
       <c r="J150" t="s" s="1">
         <v>10</v>
       </c>
@@ -2382,6 +3003,12 @@
       <c r="A151" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="B151" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="G151" t="s" s="4">
+        <v>91</v>
+      </c>
       <c r="J151" t="s" s="1">
         <v>11</v>
       </c>
@@ -2448,6 +3075,9 @@
       <c r="A157" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="D157" t="s" s="4">
+        <v>90</v>
+      </c>
       <c r="J157" t="s" s="1">
         <v>17</v>
       </c>
@@ -2459,6 +3089,12 @@
       <c r="A158" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="B158" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="C158" t="s" s="4">
+        <v>92</v>
+      </c>
       <c r="J158" t="s" s="1">
         <v>18</v>
       </c>
@@ -2470,6 +3106,12 @@
       <c r="A159" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="D159" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="F159" t="s" s="4">
+        <v>92</v>
+      </c>
       <c r="J159" t="s" s="1">
         <v>19</v>
       </c>
@@ -2480,6 +3122,9 @@
     <row r="160">
       <c r="A160" t="s" s="1">
         <v>20</v>
+      </c>
+      <c r="C160" t="s" s="4">
+        <v>92</v>
       </c>
       <c r="J160" t="s" s="1">
         <v>20</v>
